--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/20.API仕様書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0A5326-B5CA-4E49-AF58-F57DBCFA53C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -25,11 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">リクエスト!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマ投稿)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマ投稿)'!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(トークテーマ投稿)'!$1:$4</definedName>
@@ -43,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -370,18 +366,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カテゴリリスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -477,10 +462,6 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>postedUser</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -595,18 +576,91 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>最大値:4</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名がすでに使用されていないかバリデーションを行う</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト
+・カテゴリ名称の名称を変更
+・投稿者名の英名を変更</t>
+    <rPh sb="11" eb="13">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エイメイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +749,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -867,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -886,18 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -916,9 +965,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +997,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -990,38 +1060,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1061,7 +1158,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,7 +1166,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1080,7 +1177,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1145,7 +1242,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1210,7 +1307,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1275,7 +1372,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1340,7 +1437,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1405,7 +1502,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1567,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1542,7 +1639,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1614,7 +1711,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1668,7 +1765,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年12月15日 土曜日</a:t>
+              <a:t>2018年12月15日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1686,7 +1783,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1758,7 +1855,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1830,7 +1927,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1923,7 +2020,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +2028,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1942,7 +2039,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2007,7 +2104,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2072,7 +2169,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2137,7 +2234,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2202,7 +2299,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2267,7 +2364,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2332,7 +2429,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2404,7 +2501,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2476,7 +2573,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2530,7 +2627,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年12月15日 土曜日</a:t>
+              <a:t>2018年12月15日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2548,7 +2645,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2620,7 +2717,869 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13713759" y="918882"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{3E8E5129-6EF7-461B-88C6-853D4EA8681C}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>2019年1月2日</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$CC$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15363266" y="918882"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{01D9ADB0-22CE-4C1E-9DD9-E64361B03547}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>柴</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140457</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
+          <a:chOff x="78440" y="633133"/>
+          <a:chExt cx="16932090" cy="573749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="78440" y="633133"/>
+            <a:ext cx="1871383" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1952064" y="633133"/>
+            <a:ext cx="8471649" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>設計書名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10425954" y="633133"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12064253" y="633133"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13713758" y="633133"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>改訂日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15363265" y="633133"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>改訂者</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$BX$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="78441" y="918882"/>
+            <a:ext cx="1871383" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{0E5223F1-6F06-449B-9B33-0CB528B19BC8}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>Upd_001</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$BY$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1952065" y="918882"/>
+            <a:ext cx="8471649" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{87A76964-DD34-40AA-97C2-2B9F90321226}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ"/>
+                <a:ea typeface="メイリオ"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>【eternal】API仕様書_Upd001_トークテーマ投稿</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$BZ$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10425955" y="918882"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{5A1DB323-D697-4DF0-B7CA-9F0AEF1A3269}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>2018年12月15日</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$CA$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12064254" y="918882"/>
+            <a:ext cx="1647264" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{29561BEC-1095-41F7-AB96-BC599586CAD5}" type="TxLink">
+              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>柴</a:t>
+            </a:fld>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$CB$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2692,869 +3651,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15363266" y="918882"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{01D9ADB0-22CE-4C1E-9DD9-E64361B03547}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t> </a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>37356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>140457</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="74705" y="116731"/>
-          <a:ext cx="17133796" cy="579351"/>
-          <a:chOff x="78440" y="633133"/>
-          <a:chExt cx="16932090" cy="573749"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="78440" y="633133"/>
-            <a:ext cx="1871383" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1952064" y="633133"/>
-            <a:ext cx="8471649" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>設計書名</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10425954" y="633133"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>作成日</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12064253" y="633133"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>作成者</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13713758" y="633133"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>改訂日</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15363265" y="633133"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>改訂者</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$BX$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="78441" y="918882"/>
-            <a:ext cx="1871383" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{0E5223F1-6F06-449B-9B33-0CB528B19BC8}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>Upd_001</a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$BY$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1952065" y="918882"/>
-            <a:ext cx="8471649" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{87A76964-DD34-40AA-97C2-2B9F90321226}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ"/>
-                <a:ea typeface="メイリオ"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>【eternal】API仕様書_Upd001_トークテーマ投稿</a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$BZ$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10425955" y="918882"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{5A1DB323-D697-4DF0-B7CA-9F0AEF1A3269}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>2018年12月15日 土曜日</a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$CA$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12064254" y="918882"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{29561BEC-1095-41F7-AB96-BC599586CAD5}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>柴</a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$CB$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13713759" y="918882"/>
-            <a:ext cx="1647264" cy="288000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{3E8E5129-6EF7-461B-88C6-853D4EA8681C}" type="TxLink">
-              <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t> </a:t>
-            </a:fld>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="$CC$3">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3631,23 +3728,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
       <sheetName val="変更履歴"/>
-      <sheetName val="画面仕様(XXX画面)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>0.0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>42736</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3939,61 +4023,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1"/>
-    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-    </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+    </row>
+    <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4045,44 +4129,44 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="31">
+    <row r="27" spans="2:51">
+      <c r="AO27" s="34">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43449</v>
-      </c>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="33" t="str">
+        <v>43467</v>
+      </c>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+      <c r="AS27" s="35"/>
+      <c r="AT27" s="35"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="35"/>
+    </row>
+    <row r="28" spans="2:51">
+      <c r="AR28" s="36" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+        <v>0.0.2</v>
+      </c>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+    </row>
+    <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -4091,435 +4175,443 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="17" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="63">
         <v>43449</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
+    <row r="6" spans="2:5" ht="56.25">
+      <c r="B6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="63">
+        <v>43467</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="64"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="64"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="64"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="64"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="64"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="64"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="64"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="8" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="8" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="8"/>
+    <col min="76" max="82" width="8.625" style="8" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY3" s="12" t="str">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY3" s="8" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
-      <c r="BZ3" s="14">
+      <c r="BZ3" s="10">
         <v>43449</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="9"/>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81">
+      <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81">
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="19.5">
+      <c r="C11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="18"/>
+    </row>
+    <row r="12" spans="2:81" ht="19.5">
+      <c r="C12" s="38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" ht="20" x14ac:dyDescent="0.35">
-      <c r="C11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="23"/>
-    </row>
-    <row r="12" spans="2:81" ht="20" x14ac:dyDescent="0.35">
-      <c r="C12" s="35" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="21"/>
+    </row>
+    <row r="17" spans="3:34">
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="29" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="17"/>
-    </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="26"/>
-    </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="19">
-        <v>1</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4527,19 +4619,19 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC19"/>
@@ -4549,727 +4641,772 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="52" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="52" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="52"/>
+    <col min="76" max="82" width="8.625" style="52" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY3" s="12" t="str">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY3" s="52" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
-      <c r="BZ3" s="14">
+      <c r="BZ3" s="54">
         <v>43449</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="54">
+        <v>43467</v>
+      </c>
+      <c r="CC3" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX7" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA7" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81">
+      <c r="C8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="56"/>
+      <c r="BX8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA8" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81">
+      <c r="C9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="BX9" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA9" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" ht="18.95" customHeight="1">
+      <c r="BX10" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA10" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="18.95" customHeight="1">
+      <c r="C11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX11" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA11" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81">
+      <c r="C12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="56"/>
+      <c r="CA12" s="52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="CA13" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="25"/>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BX7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="23"/>
-      <c r="BX8" s="12" t="s">
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="12" t="s">
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="BX9" s="12" t="s">
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32">
+        <v>2</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="CA9" s="12" t="s">
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:81" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BX10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA10" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA11" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="23"/>
-      <c r="CA12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C13" s="47">
-        <v>1</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44" t="s">
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+    </row>
+    <row r="17" spans="3:50">
+      <c r="C17" s="30">
+        <v>3</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44" t="s">
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="38" t="s">
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="CA13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C14" s="47">
-        <v>2</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44" t="s">
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+    </row>
+    <row r="18" spans="3:50" ht="37.5" customHeight="1">
+      <c r="C18" s="26">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="38" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+    </row>
+    <row r="19" spans="3:50">
+      <c r="C19" s="30">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C15" s="30"/>
-      <c r="D15" s="51">
-        <v>1</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C16" s="49"/>
-      <c r="D16" s="51">
-        <v>2</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-    </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C17" s="49">
-        <v>3</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-    </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C18" s="45">
-        <v>4</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-    </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C19" s="49">
-        <v>5</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="40" t="s">
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AX17"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AX14"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AX15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AX16"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AI18:AX18"/>
     <mergeCell ref="E19:K19"/>
@@ -5282,453 +5419,416 @@
     <mergeCell ref="L18:R18"/>
     <mergeCell ref="S18:Y18"/>
     <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AX15"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AX16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AX17"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AX14"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AX13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AG13:AH19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AG13:AH19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC13"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="8" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="8" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="8"/>
+    <col min="76" max="82" width="8.625" style="8" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX2" s="13" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
-      <c r="BX3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY3" s="12" t="str">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BY3" s="8" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
-      <c r="BZ3" s="14">
+      <c r="BZ3" s="10">
         <v>43449</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
-    </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="9"/>
+    </row>
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="BX7" s="12" t="s">
+    <row r="7" spans="2:81">
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="CA7" s="12" t="s">
+      <c r="CA7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="2:81">
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="28" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="22" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22" t="s">
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="22" t="s">
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="22" t="s">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="23"/>
-      <c r="BX8" s="12" t="s">
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="18"/>
+      <c r="BX8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="12" t="s">
+      <c r="CA8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:81" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="47">
+    <row r="9" spans="2:81" ht="57" customHeight="1">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="41" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="40" t="s">
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="BX9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81">
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40" t="s">
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="BX10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="39" t="s">
+      <c r="CA10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="38.1" customHeight="1">
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="BX9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="CA9" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C10" s="47">
-        <v>2</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="BX10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA10" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="47">
-        <v>3</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="BX11" s="12" t="s">
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="BX11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="CA11" s="12" t="s">
+      <c r="CA11" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="CA12" s="12" t="s">
+    <row r="12" spans="2:81">
+      <c r="CA12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="CA13" s="12" t="s">
+    <row r="13" spans="2:81">
+      <c r="CA13" s="8" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AY9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AJ10:AY10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="T10:Z10"/>
     <mergeCell ref="AA10:AG10"/>
     <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AY9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0A5326-B5CA-4E49-AF58-F57DBCFA53C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6419819-34A0-4310-B578-48F284E689AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -447,10 +447,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>hiima/api/internal/v1/posttalk</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HI-05-01</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -647,6 +643,10 @@
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/postTalk</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1021,6 +1021,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,25 +1082,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1070,49 +1106,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4052,30 +4052,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4135,33 +4135,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="34">
+      <c r="AO27" s="47">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43467</v>
       </c>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="35"/>
-      <c r="AX27" s="35"/>
-      <c r="AY27" s="35"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="36" t="str">
+      <c r="AR28" s="49" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.2</v>
       </c>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4190,175 +4190,175 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="79.625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="17" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="1.625" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="1.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="41" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="45">
         <v>43449</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="56.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="63">
+      <c r="D6" s="45">
         <v>43467</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="64"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="64"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="64"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="64"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="64"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="64"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="64"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4486,15 +4486,15 @@
       <c r="AH11" s="18"/>
     </row>
     <row r="12" spans="2:81" ht="19.5">
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -4596,7 +4596,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
       <c r="T17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -4643,283 +4643,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="52" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="52" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="52"/>
-    <col min="76" max="82" width="8.625" style="52" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="52"/>
+    <col min="1" max="1" width="0.875" style="35" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="35" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="35"/>
+    <col min="76" max="82" width="8.625" style="35" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:81">
-      <c r="BX2" s="53" t="s">
+      <c r="BX2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="53" t="s">
+      <c r="BY2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="53" t="s">
+      <c r="BZ2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="53" t="s">
+      <c r="CA2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="53" t="s">
+      <c r="CB2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="53" t="s">
+      <c r="CC2" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:81">
-      <c r="BX3" s="53" t="s">
+      <c r="BX3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="BY3" s="52" t="str">
+      <c r="BY3" s="35" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
-      <c r="BZ3" s="54">
+      <c r="BZ3" s="37">
         <v>43449</v>
       </c>
-      <c r="CA3" s="53" t="s">
+      <c r="CA3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="54">
+      <c r="CB3" s="37">
         <v>43467</v>
       </c>
-      <c r="CC3" s="53" t="s">
-        <v>83</v>
+      <c r="CC3" s="36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:81">
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BX7" s="52" t="s">
+      <c r="BX7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CA7" s="52" t="s">
+      <c r="CA7" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:81">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="55" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="55" t="s">
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="55" t="s">
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="55" t="s">
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="55" t="s">
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="56"/>
-      <c r="BX8" s="52" t="s">
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="39"/>
+      <c r="BX8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="52" t="s">
+      <c r="CA8" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="BX9" s="52" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="BX9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="CA9" s="52" t="s">
+      <c r="CA9" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="BX10" s="52" t="s">
+      <c r="BX10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="CA10" s="52" t="s">
+      <c r="CA10" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:81" ht="18.95" customHeight="1">
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BX11" s="52" t="s">
+      <c r="BX11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="CA11" s="52" t="s">
+      <c r="CA11" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="55" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="55" t="s">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="55" t="s">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="55" t="s">
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="55" t="s">
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="56"/>
-      <c r="CA12" s="52" t="s">
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="39"/>
+      <c r="CA12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4928,63 +4928,63 @@
         <v>1</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="43" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43" t="s">
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43" t="s">
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="CA13" s="52" t="s">
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="CA13" s="35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4993,396 +4993,403 @@
         <v>2</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="43" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43" t="s">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43" t="s">
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="41" t="s">
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="25"/>
       <c r="D15" s="32">
         <v>1</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="43" t="s">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43" t="s">
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43" t="s">
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="41" t="s">
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
     </row>
     <row r="16" spans="2:81">
       <c r="C16" s="30"/>
       <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="43" t="s">
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43" t="s">
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="41" t="s">
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
     </row>
     <row r="17" spans="3:50">
       <c r="C17" s="30">
         <v>3</v>
       </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="43" t="s">
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43" t="s">
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43" t="s">
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="41" t="s">
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
     </row>
     <row r="18" spans="3:50" ht="37.5" customHeight="1">
       <c r="C18" s="26">
         <v>4</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
     </row>
     <row r="19" spans="3:50">
       <c r="C19" s="30">
         <v>5</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43" t="s">
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43" t="s">
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="41" t="s">
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AX18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AX19"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AX16"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AI17:AX17"/>
     <mergeCell ref="E14:K14"/>
@@ -5399,26 +5406,19 @@
     <mergeCell ref="AI15:AX15"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AX16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AX18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AX19"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5585,64 +5585,64 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="43" t="s">
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43" t="s">
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
       <c r="BX9" s="8" t="s">
         <v>30</v>
       </c>
@@ -5656,62 +5656,62 @@
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="43" t="s">
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="41" t="s">
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
       <c r="BX10" s="8" t="s">
         <v>43</v>
       </c>
@@ -5723,66 +5723,66 @@
       <c r="C11" s="26">
         <v>3</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="43" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
       <c r="BX11" s="8" t="s">
         <v>44</v>
       </c>
@@ -5802,24 +5802,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6419819-34A0-4310-B578-48F284E689AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B6F49-8EFB-4F77-A959-A65CD07698B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -602,19 +602,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー名がすでに使用されていないかバリデーションを行う</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>0.0.2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -647,6 +634,29 @@
   </si>
   <si>
     <t>hiima/api/internal/v1/postTalk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名がすでに使用されていないかバリデーションを行う
+ユーザー名がすでに使用されている場合はエラー</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1082,36 +1092,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4234,10 +4244,10 @@
     </row>
     <row r="6" spans="2:5" ht="56.25">
       <c r="B6" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="45">
         <v>43467</v>
@@ -4494,7 +4504,7 @@
       <c r="F12" s="52"/>
       <c r="G12" s="53"/>
       <c r="H12" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4780,56 +4790,56 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
       <c r="BX9" s="35" t="s">
         <v>30</v>
       </c>
@@ -4928,62 +4938,62 @@
         <v>1</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58" t="s">
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58" t="s">
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59" t="s">
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
       <c r="CA13" s="35" t="s">
         <v>34</v>
       </c>
@@ -4993,403 +5003,396 @@
         <v>2</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58" t="s">
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59" t="s">
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="54" t="s">
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="25"/>
       <c r="D15" s="32">
         <v>1</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58" t="s">
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58" t="s">
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="59" t="s">
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="54" t="s">
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
     </row>
     <row r="16" spans="2:81">
       <c r="C16" s="30"/>
       <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="58" t="s">
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58" t="s">
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="59" t="s">
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
     </row>
     <row r="17" spans="3:50">
       <c r="C17" s="30">
         <v>3</v>
       </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58" t="s">
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58" t="s">
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="59" t="s">
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-    </row>
-    <row r="18" spans="3:50" ht="37.5" customHeight="1">
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+    </row>
+    <row r="18" spans="3:50" ht="56.25" customHeight="1">
       <c r="C18" s="26">
         <v>4</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="58" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58" t="s">
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58" t="s">
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="59" t="s">
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
     </row>
     <row r="19" spans="3:50">
       <c r="C19" s="30">
         <v>5</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58" t="s">
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58" t="s">
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58" t="s">
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="59" t="s">
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="54" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AX18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AX19"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AX16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AI17:AX17"/>
     <mergeCell ref="E14:K14"/>
@@ -5406,19 +5409,26 @@
     <mergeCell ref="AI15:AX15"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AX16"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AX18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AX19"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5585,64 +5595,64 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58" t="s">
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="59" t="s">
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="54" t="s">
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
       <c r="BX9" s="8" t="s">
         <v>30</v>
       </c>
@@ -5656,62 +5666,62 @@
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58" t="s">
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58" t="s">
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58" t="s">
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="59" t="s">
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
       <c r="BX10" s="8" t="s">
         <v>43</v>
       </c>
@@ -5725,64 +5735,64 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58" t="s">
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58" t="s">
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="59" t="s">
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="54" t="s">
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
       <c r="BX11" s="8" t="s">
         <v>44</v>
       </c>
@@ -5802,24 +5812,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AY9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AJ10:AY10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="T10:Z10"/>
     <mergeCell ref="AA10:AG10"/>
     <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AY9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B6F49-8EFB-4F77-A959-A65CD07698B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE1E4B-5441-4C00-9469-D6C84D2CD36B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -349,20 +346,10 @@
     <t>title</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>categoryList</t>
   </si>
   <si>
     <t>トークテーマタイトル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トークテーマ概要</t>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -468,22 +455,6 @@
     <t>関連URL</t>
     <rPh sb="0" eb="2">
       <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>登録済のカテゴリの場合に設定される</t>
-    <rPh sb="0" eb="2">
-      <t>トウロクサレタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイハ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイサレル</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -657,6 +628,45 @@
     <rPh sb="45" eb="47">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録済のカテゴリの場合に設定し、カテゴリを新規追加する場合は未設定</t>
+    <rPh sb="0" eb="2">
+      <t>トウロクサレタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイハ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイサレル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマ内容</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -938,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -990,19 +1000,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1092,24 +1093,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,10 +1104,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2781,7 +2782,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2019年1月2日</a:t>
+              <a:t>2019年3月22日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4062,30 +4063,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4145,33 +4146,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="47">
+      <c r="AO27" s="44">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43467</v>
       </c>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="45"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="45"/>
+      <c r="AY27" s="45"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="49" t="str">
+      <c r="AR28" s="46" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.2</v>
       </c>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4200,175 +4201,175 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="79.625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="1.625" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="1.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>43449</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="56.25">
-      <c r="B6" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="45">
+      <c r="B6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="42">
         <v>43467</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="46"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="46"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="46"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="46"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="46"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="46"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -4384,7 +4385,7 @@
   </sheetPr>
   <dimension ref="B1:CC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4421,7 +4422,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BY3" s="8" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4444,12 +4445,12 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:81">
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:81">
@@ -4458,53 +4459,53 @@
       </c>
     </row>
     <row r="11" spans="2:81" ht="19.5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
       <c r="AH11" s="18"/>
     </row>
     <row r="12" spans="2:81" ht="19.5">
-      <c r="C12" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="24" t="s">
-        <v>86</v>
+      <c r="C12" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4540,7 +4541,7 @@
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:81">
@@ -4548,40 +4549,40 @@
         <v>18</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="19" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="18"/>
     </row>
     <row r="17" spans="3:34">
       <c r="C17" s="14">
@@ -4589,7 +4590,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -4606,7 +4607,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
       <c r="T17" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -4646,753 +4647,760 @@
   </sheetPr>
   <dimension ref="B1:CC19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AI15" sqref="AI15:AX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="35" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="35" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="35"/>
-    <col min="76" max="82" width="8.625" style="35" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="35"/>
+    <col min="1" max="1" width="0.875" style="32" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="32" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="32"/>
+    <col min="76" max="82" width="8.625" style="32" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:81">
-      <c r="BX2" s="36" t="s">
+      <c r="BX2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="36" t="s">
+      <c r="BY2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="36" t="s">
+      <c r="BZ2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="36" t="s">
+      <c r="CA2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CB2" s="36" t="s">
+      <c r="CB2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="36" t="s">
+      <c r="CC2" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:81">
-      <c r="BX3" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY3" s="35" t="str">
+      <c r="BX3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="BY3" s="32" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Upd001_トークテーマ投稿</v>
       </c>
-      <c r="BZ3" s="37">
+      <c r="BZ3" s="34">
         <v>43449</v>
       </c>
-      <c r="CA3" s="36" t="s">
+      <c r="CA3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="37">
-        <v>43467</v>
-      </c>
-      <c r="CC3" s="36" t="s">
-        <v>82</v>
+      <c r="CB3" s="34">
+        <v>43546</v>
+      </c>
+      <c r="CC3" s="33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:81">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA7" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81">
+      <c r="C8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="36"/>
+      <c r="BX8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA8" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81">
+      <c r="C9" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="BX9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA9" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" ht="18.95" customHeight="1">
+      <c r="BX10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA10" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="18.95" customHeight="1">
+      <c r="C11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA11" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81">
+      <c r="C12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="36"/>
+      <c r="CA12" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="CA13" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+    </row>
+    <row r="15" spans="2:81" ht="37.5" customHeight="1">
+      <c r="C15" s="22"/>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="BX7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA7" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81">
-      <c r="C8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="39"/>
-      <c r="BX8" s="35" t="s">
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="35" t="s">
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:81">
-      <c r="C9" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="BX9" s="35" t="s">
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="27"/>
+      <c r="D16" s="29">
+        <v>2</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="CA9" s="35" t="s">
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="BX10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA10" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" ht="18.95" customHeight="1">
-      <c r="C11" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX11" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA11" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81">
-      <c r="C12" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="39"/>
-      <c r="CA12" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:81">
-      <c r="C13" s="28">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56" t="s">
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+    </row>
+    <row r="17" spans="3:50">
+      <c r="C17" s="27">
+        <v>3</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56" t="s">
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="54" t="s">
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="57"/>
-      <c r="CA13" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:81">
-      <c r="C14" s="28">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="56" t="s">
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+    </row>
+    <row r="18" spans="3:50" ht="56.25" customHeight="1">
+      <c r="C18" s="23">
+        <v>4</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="54" t="s">
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+    </row>
+    <row r="19" spans="3:50">
+      <c r="C19" s="27">
+        <v>5</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="57"/>
-    </row>
-    <row r="15" spans="2:81">
-      <c r="C15" s="25"/>
-      <c r="D15" s="32">
-        <v>1</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-    </row>
-    <row r="16" spans="2:81">
-      <c r="C16" s="30"/>
-      <c r="D16" s="32">
-        <v>2</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
-    </row>
-    <row r="17" spans="3:50">
-      <c r="C17" s="30">
-        <v>3</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="57"/>
-      <c r="AX17" s="57"/>
-    </row>
-    <row r="18" spans="3:50" ht="56.25" customHeight="1">
-      <c r="C18" s="26">
-        <v>4</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="55"/>
-      <c r="AW18" s="55"/>
-      <c r="AX18" s="55"/>
-    </row>
-    <row r="19" spans="3:50">
-      <c r="C19" s="30">
-        <v>5</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="56" t="s">
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AX18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AX19"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AX16"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AI17:AX17"/>
     <mergeCell ref="E14:K14"/>
@@ -5409,26 +5417,19 @@
     <mergeCell ref="AI15:AX15"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AX16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AX18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AX19"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5486,7 +5487,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BY3" s="8" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -5509,7 +5510,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BX7" s="8" t="s">
         <v>32</v>
@@ -5522,43 +5523,43 @@
       <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="18"/>
       <c r="M8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="18"/>
       <c r="T8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="17" t="s">
         <v>13</v>
@@ -5567,20 +5568,20 @@
       <c r="AJ8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
       <c r="AY8" s="18"/>
       <c r="BX8" s="8" t="s">
         <v>35</v>
@@ -5590,69 +5591,69 @@
       </c>
     </row>
     <row r="9" spans="2:81" ht="57" customHeight="1">
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="63" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="51"/>
       <c r="BX9" s="8" t="s">
         <v>30</v>
       </c>
@@ -5661,67 +5662,67 @@
       </c>
     </row>
     <row r="10" spans="2:81">
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>2</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="54" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
       <c r="BX10" s="8" t="s">
         <v>43</v>
       </c>
@@ -5730,69 +5731,69 @@
       </c>
     </row>
     <row r="11" spans="2:81" ht="38.1" customHeight="1">
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>3</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
       <c r="BX11" s="8" t="s">
         <v>44</v>
       </c>
@@ -5812,24 +5813,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd001_トークテーマ投稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE1E4B-5441-4C00-9469-D6C84D2CD36B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDBB06-10E5-4438-94CC-5B35DACFDACA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマ投稿)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマ投稿)'!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
@@ -44,12 +44,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -465,42 +470,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>オコナウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>isSuccess</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>投稿成功フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トークテーマの投稿が成功したか
-True:成功(HTTPステータス:200)
-False:失敗(HTTPステータス:400)</t>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイコウシタカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -667,6 +636,31 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レスポンス
+・投稿成功フラグの削除</t>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -948,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1093,37 +1087,52 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3644,7 +3653,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年5月19日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3716,7 +3725,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4148,7 +4157,7 @@
     <row r="27" spans="2:51">
       <c r="AO27" s="44">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43467</v>
+        <v>43604</v>
       </c>
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45"/>
@@ -4164,7 +4173,7 @@
     <row r="28" spans="2:51">
       <c r="AR28" s="46" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.2</v>
+        <v>1.0.0</v>
       </c>
       <c r="AS28" s="46"/>
       <c r="AT28" s="46"/>
@@ -4186,7 +4195,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4245,10 +4254,10 @@
     </row>
     <row r="6" spans="2:5" ht="56.25">
       <c r="B6" s="40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="42">
         <v>43467</v>
@@ -4257,11 +4266,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="42">
+        <v>43604</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="40"/>
@@ -4374,7 +4391,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4385,7 +4402,7 @@
   </sheetPr>
   <dimension ref="B1:CC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4505,7 +4522,7 @@
       <c r="F12" s="49"/>
       <c r="G12" s="50"/>
       <c r="H12" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -4635,7 +4652,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4647,9 +4664,9 @@
   </sheetPr>
   <dimension ref="B1:CC19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI15" sqref="AI15:AX15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -4700,7 +4717,7 @@
         <v>43546</v>
       </c>
       <c r="CC3" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4791,56 +4808,56 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
       <c r="BX9" s="32" t="s">
         <v>30</v>
       </c>
@@ -4939,62 +4956,62 @@
         <v>1</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55" t="s">
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55" t="s">
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="56" t="s">
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
       <c r="CA13" s="32" t="s">
         <v>34</v>
       </c>
@@ -5004,403 +5021,396 @@
         <v>2</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55" t="s">
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55" t="s">
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="56" t="s">
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
     </row>
     <row r="15" spans="2:81" ht="37.5" customHeight="1">
       <c r="C15" s="22"/>
       <c r="D15" s="29">
         <v>1</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55" t="s">
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="56" t="s">
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
     </row>
     <row r="16" spans="2:81">
       <c r="C16" s="27"/>
       <c r="D16" s="29">
         <v>2</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="55" t="s">
+      <c r="E16" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55" t="s">
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="56" t="s">
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
     </row>
     <row r="17" spans="3:50">
       <c r="C17" s="27">
         <v>3</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55" t="s">
+      <c r="E17" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55" t="s">
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="56" t="s">
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
     </row>
     <row r="18" spans="3:50" ht="56.25" customHeight="1">
       <c r="C18" s="23">
         <v>4</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="60"/>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
     </row>
     <row r="19" spans="3:50">
       <c r="C19" s="27">
         <v>5</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55" t="s">
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55" t="s">
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55" t="s">
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="56" t="s">
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="51" t="s">
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AX18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AX19"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AX16"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AI17:AX17"/>
     <mergeCell ref="E14:K14"/>
@@ -5417,19 +5427,26 @@
     <mergeCell ref="AI15:AX15"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AX16"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AX18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AX19"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5438,7 +5455,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5499,8 +5516,12 @@
       <c r="CA3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="10"/>
-      <c r="CC3" s="9"/>
+      <c r="CB3" s="10">
+        <v>43604</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
@@ -5590,70 +5611,68 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:81" ht="57" customHeight="1">
+    <row r="9" spans="2:81">
       <c r="C9" s="25">
         <v>1</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55" t="s">
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="56" t="s">
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="66"/>
       <c r="BX9" s="8" t="s">
         <v>30</v>
       </c>
@@ -5661,68 +5680,70 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:81">
-      <c r="C10" s="25">
+    <row r="10" spans="2:81" ht="36.75" customHeight="1">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55" t="s">
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
       <c r="BX10" s="8" t="s">
         <v>43</v>
       </c>
@@ -5730,70 +5751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="38.1" customHeight="1">
-      <c r="C11" s="23">
-        <v>3</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
+    <row r="11" spans="2:81">
       <c r="BX11" s="8" t="s">
         <v>44</v>
       </c>
@@ -5812,34 +5770,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="AJ10:AY10"/>
+  <mergeCells count="12">
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="T10:Z10"/>
     <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AJ10:AY10"/>
     <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI11" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI10" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>